--- a/analysis/ExData/Performance/RawData/TaskTime_Yamashita_20220125.xlsx
+++ b/analysis/ExData/Performance/RawData/TaskTime_Yamashita_20220125.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nitechict-my.sharepoint.com/personal/clp13218_ict_nitech_ac_jp/Documents/学校/研究室/実験/卒論実験/TaskTime/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nitechict-my.sharepoint.com/personal/clp13218_ict_nitech_ac_jp/Documents/学校/研究室/code/Analysis/ExData/Performance/RawData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="8_{0CCBA4F4-F30A-3F4B-9AB6-5763C6ADE525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3FFD6F1E-E06C-9E4C-8B6F-466445E70EC1}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="8_{0CCBA4F4-F30A-3F4B-9AB6-5763C6ADE525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{73D86549-706E-2148-A9C1-C43941247A31}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{3E4085DD-6963-EE45-ACA7-3908352DF284}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16600" xr2:uid="{3E4085DD-6963-EE45-ACA7-3908352DF284}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>points</t>
     <phoneticPr fontId="1"/>
@@ -424,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35A430C4-73D2-BA47-BB5B-E062CC678D88}">
-  <dimension ref="A1:S4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2:U9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -435,7 +435,7 @@
     <col min="1" max="16384" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:10">
       <c r="B1" s="1">
         <v>1</v>
       </c>
@@ -464,7 +464,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -496,7 +496,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -527,11 +527,8 @@
       <c r="J3" s="1">
         <v>27.9</v>
       </c>
-      <c r="S3" s="1" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
